--- a/data/Microplastic_Taxonomy/Microplastics_DataPortal_Clean_Morphology.xlsx
+++ b/data/Microplastic_Taxonomy/Microplastics_DataPortal_Clean_Morphology.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastic_Data_Portal-main/data/Microplastic_Taxonomy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63EB6AA-B557-4B40-856B-B06ACA86F751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2976A2FC-F0A7-E549-BCD9-BF37B24A8FEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11440" yWindow="740" windowWidth="16020" windowHeight="11880" xr2:uid="{D401F74E-A2D1-9C4E-9D2D-23BF4F6F8055}"/>
+    <workbookView xWindow="-16620" yWindow="-9180" windowWidth="16020" windowHeight="11880" xr2:uid="{D401F74E-A2D1-9C4E-9D2D-23BF4F6F8055}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Morphology</t>
   </si>
@@ -176,6 +176,36 @@
   </si>
   <si>
     <t>Foams</t>
+  </si>
+  <si>
+    <t>Rubbery fragment</t>
+  </si>
+  <si>
+    <t>Fiber bundle</t>
+  </si>
+  <si>
+    <t>Beads</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>doi.org/10.1016/j.watres.2018.10.013</t>
+  </si>
+  <si>
+    <t>https://www.waterboards.ca.gov/drinking_water/certlic/drinkingwater/documents/microplastics/swb-mp2-rev1.pdf</t>
+  </si>
+  <si>
+    <t>Styrofoam</t>
+  </si>
+  <si>
+    <t>Polystyrene</t>
+  </si>
+  <si>
+    <t>Alias_4</t>
+  </si>
+  <si>
+    <t>Extruded polystyrene</t>
   </si>
 </sst>
 </file>
@@ -535,15 +565,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B31FD0F3-3196-1440-93E1-E0A09F303C3A}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -563,13 +596,16 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -582,11 +618,11 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -602,11 +638,11 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -622,14 +658,14 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>41</v>
       </c>
@@ -642,14 +678,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -662,11 +698,20 @@
       <c r="D6" t="s">
         <v>46</v>
       </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
       <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -685,11 +730,11 @@
       <c r="F7" t="s">
         <v>13</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -699,11 +744,11 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -713,11 +758,14 @@
       <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -733,14 +781,14 @@
       <c r="E10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -752,6 +800,30 @@
       </c>
       <c r="E11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
